--- a/data/faq.xlsx
+++ b/data/faq.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D58DDDE-9F22-4FAB-87DD-1D1920C26D9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D09FD5-9854-481C-85A7-88EA2AF34A09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$35</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,16 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>복수전공은 무엇인가요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복수전공은 언제부터 신청할 수 있나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>복수전공과 부전공의 차이는 무엇인가요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>융합전공은 언제부터 신청할 수 있나요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>융합전공 이수하려면 어떻게 해야 하나요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,31 +94,514 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2개 전공의 학위를 받는 제도입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이수증을 받을 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소정의 과목을 이수하면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합전공 포기시 융합부전공으로 인정 받을 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복수전공 포기시 합부전공으로 인정 받을 수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39학점을 이수하면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 이수가 늦어지면 졸업을 늦을 수도 있습니다.</t>
+    <t>부전공의 신청자격은 어떻게 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입학 후 첫 학기부터 신청가능합니다. 단, 신입생은 2020학번 이후부터, 편입생은 2022학번 이후부터 신청가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청서류는 어디서 받나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 홈페이지 학사공지를 참고해 주시기 바랍니다. https://www.hknu.ac.kr/kor/562/subview.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청/포기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공 포기절차는 어떻게 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정 포기절차는 어떻게 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 포기서 작성, 2. 소단위전공과정 교육운영전공 학부장 확인, 3. 교육운영전공 사무실에 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 포기서 작성, 2. 연계전공 학부장 확인, 3. 연계전공 사무실에 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 포기서 작성, 2. 융합전공 학부장 확인, 3. 융합전공 사무실에 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공, 융합부전공의 전공은 어떻게 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트헬스케어융합전공, AI스마트팜융합전공, AI빅데이터융합전공, 공공헬스케어IT융합전공, 반도체융합전공, 스마트애그리푸드시스템전공, 탄소중립바이오시스템융합전공이 개설되어 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공의 신청절차는 어떻게 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 연계전공 희망 학부장 확인, 4. 연계전공 희망전공 사무실에 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 융합전공 학부장 확인 및 제출(제1공학관 222호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정의 신청절차는 어떻게 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 신청서 작성, 2. 교육운영전공 지도교수 및 학부장 확인, 3. 교육운영전공 학부장 확인 및 사무실 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공은 언제부터 신청할 수 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 이외에 다른 전공의 전공과정을 이수하여 2개의 학위를 인정받는 제도입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부전공 이수하려면 어떻게 해야 하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합부전공 이수하려면 어떻게 해야 하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 부전공은 전필과목 포함 27학점 이상 이수하면 됩니다.(원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수). 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 복수전공은 전필과목 포함 39학점 이상 이수하면 됩니다.(법학전공을 제외한 인문사회계열은 36학점 이상 이수). 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 복수전공 둘다 합격해야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 39학점 이상 이수하여야 하고 융합전공은 전필과목 포함 39학점 이상 이수하면 됩니다.(원전공은 법학전공을 제외한 인문사회계열은 36학점 이상 이수). 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증은 원전공만 합격, 졸업종합시험은 원전공 및 융합전공 둘다 합격해야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 51학점 이상 이수하여야 하고 융합부전공은 전필과목 포함 27학점 이상 이수하면 됩니다.(원전공은 법학전공을 제외한 인문사회계열은 48학점 이상 이수). 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공은 2개 전공을 모두 전공자로 인정되어 학위를 각각 받지만, 부전공은 복수전공에 비해 난이도와 학점 부담이 적어 상대적으로 이수하기가 쉽습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공은 2개 전공을 모두 전공자로 인정되어 학위를 각각 받지만, 융합부전공은 융합전공에 비해 난이도와 학점 부담이 적어 상대적으로 이수하기가 쉽습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연계전공 이수하려면 어떻게 해야 하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공은 전필과목 포함 78학점 이상 이수하여야 하고 연계전공은 전공 교과목 9학점 이상 이수하면 됩니다.(원전공은 법학전공을 제외한 인문사회계열은 72학점 이상 이수). 교양은 원전공의 교양 졸업요구학점 이상 이수하면 되고, 졸업인증, 졸업종합시험은 원전공만 합격하면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 취득한 학점(이수 중인 과목은 성적 확정 후)의 이수구분은 자유선택으로 변경됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적은 학점으로 다양한 전공을 경험해 볼 수 있는 제도입니다. 본인 전공과목과 중복 인정이 가능해 효율적으로 이수할 수 있으며, 3개 교과목 이상 이수 시 연계전공 신청도 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정과 마이크로디그리는 다른 제도인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정은 마이크로디그리와 동일한 제도로 소단위전공과정을 마이크로디그리라고도 부릅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개 이상의 전공이 융합하여 새로운 전공을 만든 것으로 학생들에게 보다 더 나은 교육의 질을 제공하기 위해 만들어진 전공입니다. 2개의 학위가 인정됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공, 융합전공처럼 학점 부담이 큰 제도는3~4학년에 시작할 경우 졸업이 늦을 수 있습니다. 반면 1~2학년 때부터 미리 준비하면 큰 문제가 없습니다. 학점 부담이 적은 연계전공, 소단위전공과정은 3~4학년 때 시작해도 무리가 없으며, 이미 관련 전공 과목을 이수했다면 소급 인정이 가능해 부담이 휠씬 적습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공 신청 전에 이수한 교과목도 해당 전공으로 소급 인정됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정의 이수구분은 어떻게 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>원전공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전공과목과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>동일한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교과목은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>원전공의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이수구분으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>타</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전공의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교과목의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자유선택으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인정됩니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교양과목은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>원전공의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이수구분을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>따릅니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정별로 편성된 과목(3~4과목)을 이수하면 됩니다. 이수 시 별도의 이수증을 발급해 드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정 이수건수에 제한이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소단위전공과정은 이수건수 제한이 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공 이수건수에 제한이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공, 부전공, 융합전공, 융합부전공, 연계전공은 1개만 이수할 수 있습니다. 단 소단위전공과정은 이수건수 제한이 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공을 이수했다는 확인을 어떻게 받나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통으로 성적증명서 상단에 표시가 되며, 학위증에 다전공명이 표시됩니다. 소단위전공과정(마이크로디그리)은 별도 이수증을 발급해 드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청하려는 다전공의 과목을 이미 이수했다면 어떻게 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공, 융합부전공의 신청절차는 어떻게 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공, 부전공의 신청절차는 어떻게 될까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 신청서 작성, 2. 원전공 지도교수 및 학부장 확인, 3. 복수전공/부전공 희망 학부장 확인, 4. 복수전공/부전공 희망전공 사무실에 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공/부전공 포기절차는 어떻게 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 포기서 작성, 2. 복수전공/부전공 학부장 확인, 3. 복수전공/부전공 사무실에 제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공/융합부전공 포기절차는 어떻게 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공 중도 포기 시 학점은 어떻게 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복수전공/부전공은 언제부터 신청할 수 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>융합전공/융합부전공은 언제부터 신청할 수 있나요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +623,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,8 +651,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -453,9 +934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -464,146 +947,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/data/faq.xlsx
+++ b/data/faq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D09FD5-9854-481C-85A7-88EA2AF34A09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2AE6B3-6030-4011-9063-F5EAF60ACE66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>복수전공은 무엇인가요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,6 +602,22 @@
   </si>
   <si>
     <t>융합전공/융합부전공은 언제부터 신청할 수 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공 신청은 언제 하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다전공 제도는 매 학기 초(4월, 10월)와 학기 말(6월, 12월)에 신청 가능합니다. 자세한 공지는 홈페이지 학사공지를 참고하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록금을 더 내야 하나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원전공 기준의 등록금을 납부하면 됩니다. 다전공을 신청해도 추가 등록금을 내지 않습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,19 +950,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,7 +973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -968,7 +984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -979,7 +995,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -990,7 +1006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,7 +1017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1023,7 +1039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1034,7 +1050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,7 +1061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1056,7 +1072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1067,7 +1083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1094,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1089,7 +1105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,7 +1127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1122,7 +1138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1166,7 +1182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,7 +1195,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1192,7 +1208,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1221,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1218,7 +1234,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,7 +1247,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1242,7 +1258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -1253,7 +1269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1264,7 +1280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1275,7 +1291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,7 +1302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1313,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1308,7 +1324,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1319,7 +1335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1346,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -1339,11 +1355,33 @@
       </c>
       <c r="C35" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>